--- a/results_kopia_binary/SREDNIAWYNIKOW.xlsx
+++ b/results_kopia_binary/SREDNIAWYNIKOW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michal\Desktop\MGR_SEM2\UM_P\PWr-Uczenie-Maszyn\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michal\Desktop\MGR_SEM2\UM_P\PWr-Uczenie-Maszyn\results_kopia_binary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8451123-F0E2-4E1B-B54D-0C3ACE2B91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F8882-A2F7-44F5-A34C-59B8194E4EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{20B96981-027E-452C-A18F-02F2F44DD1F0}"/>
+    <workbookView xWindow="4824" yWindow="1392" windowWidth="17280" windowHeight="8964" xr2:uid="{20B96981-027E-452C-A18F-02F2F44DD1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFC173-FC9D-4683-96A7-FC9EAEE543AC}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1096,7 @@
         <v>0.74527285474518834</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -1113,32 +1113,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>0.81917344700000005</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.93547665000000002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.67746087700000002</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.76853261299999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>0.67725118900000003</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.66038266300000004</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.91776085100000004</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.74873180100000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="B52" s="2">
+        <v>0.80694334599999995</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.89454703899999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.68433549599999999</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.766430795</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
